--- a/Бланк_Нагрузки.xlsx
+++ b/Бланк_Нагрузки.xlsx
@@ -6,7 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="CombinedTeachers" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Первое полугодие" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Второе полугодие" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -880,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O43"/>
+  <x:dimension ref="A1:O19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1290,501 +1291,523 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:15">
-      <x:c r="A25" s="0" t="s">
+  </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A1:C1"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:O19"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:15">
+      <x:c r="A1" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:15">
-      <x:c r="A26" s="0" t="s">
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E26" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F26" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G26" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="H26" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="I26" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="J26" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="K26" s="0" t="s">
+      <x:c r="K2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="L26" s="0" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="M26" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="N26" s="0" t="s">
+      <x:c r="N2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="O26" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:15">
-      <x:c r="A27" s="0" t="s">
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F27" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="G27" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="K27" s="0" t="s">
+      <x:c r="K3" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="M27" s="0" t="s">
+      <x:c r="M3" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="O27" s="0">
+      <x:c r="O3" s="0">
         <x:v>789.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:15">
-      <x:c r="A28" s="0" t="s">
+    <x:row r="4" spans="1:15">
+      <x:c r="A4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="F28" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="K28" s="0" t="s">
+      <x:c r="K4" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="O28" s="0">
+      <x:c r="O4" s="0">
         <x:v>305.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:15">
-      <x:c r="A29" s="0" t="s">
+    <x:row r="5" spans="1:15">
+      <x:c r="A5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E29" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F29" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="G29" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="K29" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="M29" s="0" t="s">
+      <x:c r="M5" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="O29" s="0">
+      <x:c r="O5" s="0">
         <x:v>761.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:15">
-      <x:c r="A30" s="0" t="s">
+    <x:row r="6" spans="1:15">
+      <x:c r="A6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F30" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G30" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="K30" s="0" t="s">
+      <x:c r="K6" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="O30" s="0">
+      <x:c r="O6" s="0">
         <x:v>618.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:15">
-      <x:c r="A31" s="0" t="s">
+    <x:row r="7" spans="1:15">
+      <x:c r="A7" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E31" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="F31" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="K31" s="0" t="s">
+      <x:c r="K7" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="O31" s="0">
+      <x:c r="O7" s="0">
         <x:v>737.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:15">
-      <x:c r="A32" s="0" t="s">
+    <x:row r="8" spans="1:15">
+      <x:c r="A8" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="F32" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="K32" s="0" t="s">
+      <x:c r="K8" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="O32" s="0">
+      <x:c r="O8" s="0">
         <x:v>645.35</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:15">
-      <x:c r="A33" s="0" t="s">
+    <x:row r="9" spans="1:15">
+      <x:c r="A9" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="F33" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="G33" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="I33" s="0" t="s">
+      <x:c r="I9" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="K33" s="0" t="s">
+      <x:c r="K9" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="M33" s="0" t="s">
+      <x:c r="M9" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="O33" s="0">
+      <x:c r="O9" s="0">
         <x:v>840.35</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:15">
-      <x:c r="A34" s="0" t="s">
+    <x:row r="10" spans="1:15">
+      <x:c r="A10" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B34" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D34" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="F34" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="G34" s="0" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="K34" s="0" t="s">
+      <x:c r="K10" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="O34" s="0">
+      <x:c r="O10" s="0">
         <x:v>356.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:15">
-      <x:c r="A35" s="0" t="s">
+    <x:row r="11" spans="1:15">
+      <x:c r="A11" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C35" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D35" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F35" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="G35" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="K35" s="0" t="s">
+      <x:c r="K11" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="M35" s="0" t="s">
+      <x:c r="M11" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="O35" s="0">
+      <x:c r="O11" s="0">
         <x:v>611.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:15">
-      <x:c r="A36" s="0" t="s">
+    <x:row r="12" spans="1:15">
+      <x:c r="A12" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B36" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D36" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="E36" s="0" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="F36" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="K36" s="0" t="s">
+      <x:c r="K12" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="O36" s="0">
+      <x:c r="O12" s="0">
         <x:v>1553.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:15">
-      <x:c r="A37" s="0" t="s">
+    <x:row r="13" spans="1:15">
+      <x:c r="A13" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D37" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="F37" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="K37" s="0" t="s">
+      <x:c r="K13" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="M37" s="0" t="s">
+      <x:c r="M13" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="O37" s="0">
+      <x:c r="O13" s="0">
         <x:v>544.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:15">
-      <x:c r="A38" s="0" t="s">
+    <x:row r="14" spans="1:15">
+      <x:c r="A14" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D38" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="s">
+      <x:c r="F14" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="K38" s="0" t="s">
+      <x:c r="K14" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="O38" s="0">
+      <x:c r="O14" s="0">
         <x:v>408.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:15">
-      <x:c r="A39" s="0" t="s">
+    <x:row r="15" spans="1:15">
+      <x:c r="A15" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D39" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E39" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="F39" s="0" t="s">
+      <x:c r="F15" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="G39" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="K39" s="0" t="s">
+      <x:c r="K15" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="O39" s="0">
+      <x:c r="O15" s="0">
         <x:v>500</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:15">
-      <x:c r="A40" s="0" t="s">
+    <x:row r="16" spans="1:15">
+      <x:c r="A16" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
+      <x:c r="B16" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C40" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D40" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="F40" s="0" t="s">
+      <x:c r="F16" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="G40" s="0" t="s">
+      <x:c r="G16" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="I40" s="0" t="s">
+      <x:c r="I16" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="K40" s="0" t="s">
+      <x:c r="K16" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="N40" s="0" t="s">
+      <x:c r="N16" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="O40" s="0">
+      <x:c r="O16" s="0">
         <x:v>231.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:15">
-      <x:c r="A41" s="0" t="s">
+    <x:row r="17" spans="1:15">
+      <x:c r="A17" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
+      <x:c r="B17" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D41" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="F41" s="0" t="s">
+      <x:c r="F17" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="G41" s="0" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="K41" s="0" t="s">
+      <x:c r="K17" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="O41" s="0">
+      <x:c r="O17" s="0">
         <x:v>434.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:15">
-      <x:c r="A42" s="0" t="s">
+    <x:row r="18" spans="1:15">
+      <x:c r="A18" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
+      <x:c r="B18" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="C42" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="D42" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="E42" s="0" t="s">
+      <x:c r="E18" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="F42" s="0" t="s">
+      <x:c r="F18" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="G42" s="0" t="s">
+      <x:c r="G18" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="K42" s="0" t="s">
+      <x:c r="K18" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="O42" s="0">
+      <x:c r="O18" s="0">
         <x:v>333.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:15">
-      <x:c r="A43" s="0" t="s">
+    <x:row r="19" spans="1:15">
+      <x:c r="A19" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
+      <x:c r="B19" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D43" s="0" t="s">
+      <x:c r="D19" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="G43" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="K43" s="0" t="s">
+      <x:c r="K19" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="O43" s="0">
+      <x:c r="O19" s="0">
         <x:v>33.5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
+  <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
-    <x:mergeCell ref="A25:C25"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
